--- a/Day 12&13 Time Series/Decomposition Model/Seasonality_index.xlsx
+++ b/Day 12&13 Time Series/Decomposition Model/Seasonality_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laxminarayen/Documents/Inceptez-Batch-17/Day 12&amp;13 Time Series/Decomposition Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D00314EC-0FF4-724E-BEBC-D36E581115FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D786D451-69A1-CD4C-B81C-E011C7C5D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7CBA7A49-BA87-2545-BA2F-AAF7DC07EB23}"/>
   </bookViews>
